--- a/medicine/Enfance/Catherine_Cuenca/Catherine_Cuenca.xlsx
+++ b/medicine/Enfance/Catherine_Cuenca/Catherine_Cuenca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catherine Cuenca  (née le 1er avril 1982 à Lyon) est écrivaine, autrice de romans historiques pour la jeunesse. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle publie son premier roman en 2001. Depuis 2010, elle exerce le métier d'écrivain à temps plein[1]. 
-Elle a remporté trois fois le Prix du roman historique jeunesse de Blois[2] avec ses romans Soeurs de guerre paru chez Talents Hauts,Frères de Guerre et La Guerre des ombres parus chez Flammarion.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle publie son premier roman en 2001. Depuis 2010, elle exerce le métier d'écrivain à temps plein. 
+Elle a remporté trois fois le Prix du roman historique jeunesse de Blois avec ses romans Soeurs de guerre paru chez Talents Hauts,Frères de Guerre et La Guerre des ombres parus chez Flammarion.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La dernière sorcière, Talents Hauts, coll. Les Héroïques, 2023
 Les démons de Notre-Dame, Scrineo, coll. Histoire, 2023
